--- a/finetuning/it_datasets/qa_dataset/qa_it_nefta_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_nefta_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -663,12 +668,63 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a top-rated tourist attraction, check out Corbeille de Nefta located at VVHF+6Q8 Corbeille de Nefta, P3, Nefta. This popular destination has a rating of 4.1 and offers an unforgettable experience for visitors. Corbeille de Nefta is open during these hours: 07:00-18:00. To get there, use these GPS coordinates: 33.87309, 7.87765. For more details, visit their website at https://www.google.com/maps/place/Corbeille+de+Nefta/data=!4m7!3m6!1s0x12578c99f0196a8d:0xab0fb51e1c3430c5!8m2!3d33.8780495!4d7.8744389!16s%2Fg%2F124yg6rxw!19sChIJjWoZ8JmMVxIRxTA0HB61D6s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in Nefta can you find a highly-rated tourist attraction with stunning scenery?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historic La medina de Nefta, admiring its architectural beauty and ancient doors.
+Mid-Morning:
+- Visit the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a sacred religious site with a serene atmosphere.
+Midday:
+- Enjoy a delicious lunch of African cuisine at Complexe Touareg, where you can savor the flavors of traditional dishes.
+Afternoon:
+- Take a refreshing dip in the crystal-clear waters of Corbeille de Nefta, surrounded by lush palm groves.
+Evening:
+- Indulge in a traditional dinner at Voilaille de Nefta, where you can experience the finest culinary delights Nefta has to offer.
+Night:
+- Relax and unwind at the cozy Cafe Salem, enjoying a warm cup of coffee and soaking in the local ambiance.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+Cafe Salem is a highly-rated cafe located in VVHF+M8W Nefta, Tunisia. It offers a cozy ambiance and a delectable menu, earning it a 5.0 rating from reviewers. Located at (33.8701756, 7.8728363), Cafe Salem is a great spot to relax, savor a cup of coffee, and soak in the local atmosphere.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+Voilaille de Nefta, situated in Nefta, Tunisia, is a renowned eatery known for its exceptional culinary offerings. Located at the coordinates (33.8741358, 7.8749425), this establishment has garnered a 5.0 rating based on its 4 reviews. With its opening hours from 07:30 to 22:30, Voilaille de Nefta invites patrons to savor its delectable dishes within a cozy and welcoming atmosphere.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -778,14 +834,57 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a memorable dining experience, check out Espace Ferdaous "Zombrita" located at VV9J+7XJ Espace ferdaous "Zombrita". 
-This top-rated cafe and grill boasts a 4.8 rating and is open 24 hours a day. 
-For more details, visit their website at https://www.facebook.com/EL.FERDAWS.ZOMBRITA/ or call them at 52 563 871.</t>
+          <t>**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where in Nefta is the highly-rated dining spot Espace Ferdaous "Zombrita" known for its round-the-clock service?</t>
+          <t>Day Plan:
+Morning: Explore the La medina de Nefta, a historic site with beautiful architecture and friendly locals.
+Mid-Morning: Visit the Yamen HD Nefta photography studio to capture memories of your trip with professional photography services.
+Midday: Try local cuisine at Fast Food Dissi, a highly-rated pizzeria with a cozy ambiance and delicious pizzas.
+Afternoon: Relax with a Hammam at Dar Hi Life, an eco-chic hotel with modern rooms, eclectic decor, and a relaxing hammam.
+Evening: Attend a live music event at Espace Nejma, a cozy cafe with a wide selection of coffee beverages, pastries, snacks, and a relaxing ambiance.
+Night: Explore the Corbeille de Nefta, a beautiful oasis with lush palm trees, a stunning desert landscape, picturesque irrigation channels, and cafes and restaurants.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+Espace Nejma is a cozy cafe located in Nefta, offering a wide selection of coffee beverages, pastries, and snacks. It also features live music and a relaxing ambiance, making it a popular spot for locals and tourists alike.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+In Nefta, fast food bali offers a great dining experience. As it's located at the coordinates (33.8701756, 7.8728363), it's an easy place to find. With a rating of 5.0, it's a must-try for anyone looking for a great restaurant.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -891,14 +990,57 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for something fun to do, check out Complexe Touareg located at VVHF+6F3 Complexe Touareg, Corbeille De Nefta, Naftah 2245. 
-This top-rated destination is perfect for Restaurant africain lovers. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 33.8721027, 7.8837539. For more details, visit their website at https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 950 518.</t>
+          <t>Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant serving African cuisine in the heart of Nefta?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina de Nefta, taking in its remarkable architecture and historical significance. (33.87309, 7.87765)
+Mid-Morning: Visit the awe-inspiring Mosquee Sidi M'Khareg, a cherished place of worship with stunning architectural designs. (33.8696026, 7.8821324)
+Midday: Indulge in a delectable local cuisine experience at Restaurant DANMARKI, renowned for its exceptional 5-star culinary offerings.
+Afternoon: Delight in a relaxing afternoon at the palmeraie surrounding Hotel Marhala, admiring the breathtaking natural beauty.
+Evening: Immerse yourself in the vibrant atmosphere of Espace Nejma, a cozy cafe offering live music and a delightful selection of coffee beverages and snacks.
+Night: Savor the delicious pizzas and cozy ambiance at Fast Food Dissi, a highly-rated pizzeria in the heart of Nefta. (VVGM+JP Quartier Ezaouia, Nefta)</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+Espace Nejma is a cozy cafe located in Nefta, offering a wide selection of coffee beverages, pastries, and snacks. It also features live music and a relaxing ambiance, making it a popular spot for locals and tourists alike.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+Restaurant DANMARKI is a highly rated dining establishment situated in Nefta, offering an exceptional culinary experience with a 5-star rating. Open daily from 10:00 am to midnight, except on Fridays when it remains closed, Restaurant DANMARKI invites diners to savor its delectable cuisine. Located at coordinates (35.5116829, 23.97959), this restaurant is easily accessible and invites gastronomes to embark on a memorable dining journey.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+**La medina de Nefta** is a captivating historical site located at the heart of the Tunisian town nefta, inviting visitors to delve into its rich history and cultural heritage. With its prime location at (33.87309, 7.87765), it boasts an impressive 4.2 rating and has garnered positive reviews for its remarkable architecture and historical significance.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1008,14 +1150,57 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for something fun to do, check out The Daily Brew Coffee Shop located at Rue des Martyrs, Nefta. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 43.655929, -79.384026. For more details, visit their website at https://www.facebook.com/DailyBrewCoffeeshop/ or call them at 21 077 707.</t>
+          <t>The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>What is the top-rated Salon de the destination in Nefta, located at Rue des Martyrs, that offers a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Embark on a guided tour of the historic La medina de Nefta, marveling at its preserved architectural wonders.
+Mid-Morning: Immerse yourself in local cuisine at Complexe Touareg, savoring the aromatic delights of African cuisine.
+Midday: Venture to the picturesque Corbeille de Nefta, a serene oasis offering breathtaking views of lush palm trees and sculpted desert landscapes. Indulge in a memorable camel ride, capturing the essence of the Saharan wilderness.
+Afternoon: Ascend to La Zaouia de Sidi Bou Ali Al-Sunni Nefti, a spiritual sanctuary that beckons with its sacred ambiance and captivating heritage.
+Evening: Experience the enchantment of Mosquee Sidi M'Khareg, an architectural masterpiece that exudes tranquility and reverence. Capture the essence of its hallowed halls, immersing yourself in its spiritual aura.
+Night: Relish the authentic flavors of Nefta at Café Ejjouj, a cozy retreat offering delectable cafe beverages and snacks. Engage with the locals, soak in the convivial atmosphere, and bid farewell to a day filled with cultural exploration and sensory delights.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+Cafe Ejjouj is a top-rated cafe located at VVCM+3HM, P3, Nefta, with coordinates (33.8701756, 7.8728363). It offers a cozy atmosphere and a menu featuring various cafe beverages and snacks. Its营业时间s are from 4:00 AM to 11:00 PM, and it is closed on nones. With a rating of 4.9 based on 14 reviews, Cafe Ejjouj is a popular spot for locals and tourists alike.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+Restaurant DANMARKI is a highly-rated restaurant located in Nefta, Tunisia, with coordinates (35.5116829, 23.97959). It serves delicious cuisine and has received positive reviews from patrons. The restaurant is open from 10:00 AM to midnight on all days except Fridays when it is closed. For more information, visit their website.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1117,14 +1302,57 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you happen to be in Nefta and craving a cozy ambiance, be sure to visit Cafe Ejjouj located at VVCM+3HM Cafe Ejjouj, P3. 
-This highly acclaimed cafe is a haven for coffee enthusiasts and boasts a 4.9 rating. It serves up a diverse menu of delectable treats to satisfy your sweet and savory cravings. 
-Cafe Ejjouj welcomes you from 4:00 AM to 11:00 PM every day. To reach the cafe, simply follow the GPS coordinates: 33.8701756, 7.8728363.</t>
+          <t>Cafe Ejjouj is a top-rated cafe located at VVCM+3HM, P3, Nefta, with coordinates (33.8701756, 7.8728363). It offers a cozy atmosphere and a menu featuring various cafe beverages and snacks. Its营业时间s are from 4:00 AM to 11:00 PM, and it is closed on nones. With a rating of 4.9 based on 14 reviews, Cafe Ejjouj is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where in Nefta can you find a highly-rated cafe with extended hours and a cozy ambiance, perfect for both coffee enthusiasts and those seeking a delightful dining experience?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Corbeille de Nefta, known for its lush palm trees and serene irrigation channels.
+Mid-Morning: Indulge in a delightful breakfast at **Espace ferdaous "Zombrita"**, a highly-rated café and grill restaurant offering affordable local cuisine.
+Midday: Visit the historic La medina de Nefta, a UNESCO World Heritage Site known for its beautiful architecture and doors.
+Afternoon: Enjoy a refreshing swim in the inviting pool at the 4-star Hotel Marhala, while soaking up the stunning views of the palmeraie.
+Evening: Savor a delectable dinner at Voilaille de Nefta, renowned for its exceptional culinary offerings and cozy ambiance.
+Night: Participate in a traditional Tunisian cultural event at the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a place of worship and pilgrimage.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+Cafe Alhabib is a Cafe located at 33.8741358, 7.8749425 in Nefta, Tunisia. It is open from 6:00 AM to 1:00 AM, and is rated 4.0 out of 5 stars with 8 reviews.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+Voilaille de Nefta, situated in Nefta, Tunisia, is a renowned eatery known for its exceptional culinary offerings. Located at the coordinates (33.8741358, 7.8749425), this establishment has garnered a 5.0 rating based on its 4 reviews. With its opening hours from 07:30 to 22:30, Voilaille de Nefta invites patrons to savor its delectable dishes within a cozy and welcoming atmosphere.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1226,16 +1454,57 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a great cafe, check out Cafe Stade.
-This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from.
-With a rating of 4.9, it's a must-visit spot. It's open 24 hours a day.
-To get there, use these GPS coordinates: 33.871381381994, 7.879904891635. 
-For more details, visit their website at https://www.google.com/maps/place/Cafe+Stade/data=!4m7!3m6!1s0x12578d6934a4131f:0xdb8f33d6c89142a9!8m2!3d33.8705125!4d7.8775469!16s%2Fg%2F11h07_m4wj!19sChIJHxOkNGmNVxIRqUKRyNYzj9s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Stade is a Cafe located in nefta (33.871381381994, 7.879904891635). It has a rating of 4.9 out of 11 reviews and is featured for its 24/7 service.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>If you're exploring Nefta and craving a top-rated cafe experience, what renowned establishment stands out with its 4.9 rating and 24-hour availability?</t>
+          <t>Day Plan:
+Morning: Exploring Corbeille de Nefta
+Mid-Morning: Trying local cuisine at Espace Ferdaous "Zombrita"
+Midday: Visiting La medina de Nefta
+Afternoon: Enjoying scenic views at Mosquee Sidi M'Khareg
+Evening: Relaxing with a swim at Hotel Marhala
+Night: Engaging in cultural immersion at Zaouia de Sidi Bou Ali Al-Sunni Nefti</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+Cafe Flamingo is a highly-rated cafe located in the heart of Nefta, Tunisia. It offers a delectable selection of beverages and snacks, making it a perfect spot for locals and visitors alike to relax and unwind. The cafe is open 24 hours a day, ensuring accessibility at all times. With a convenient location and warm ambiance, Cafe Flamingo is a must-visit destination for anyone seeking a cozy and enjoyable coffee experience.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+Restaurant DANMARKI is a highly-rated restaurant located in Nefta, Tunisia, with coordinates (35.5116829, 23.97959). It serves delicious cuisine and has received positive reviews from patrons. The restaurant is open from 10:00 AM to midnight on all days except Fridays when it is closed. For more information, visit their website.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1341,13 +1610,57 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in Nefta and craving some delicious pizza, head to Fast Food Dissi located at Quartier Ezaouia, Nefta. 
-With a rating of 4.9, it's a must-visit spot for pizzeria lovers. They're open from 12:00 PM to 12:00 AM during the week, but closed on Sundays. To get there, use these GPS coordinates: (33.8701756, 7.8728363). For more details, call them at 53 053 232.</t>
+          <t>Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizzeria open late at night in Nefta?</t>
+          <t>Day Plan:
+Morning: Explore the Corbeille de Nefta, an oasis with palm trees and water, a popular spot for relaxation and enjoying the natural beauty of the area.
+Mid-Morning: Visit the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a religious site and place of worship and pilgrimage, offering a glimpse into the region's spiritual heritage.
+Midday: Try local cuisine at Complexe Touareg, a restaurant offering African cuisine with a 4.1 rating, savoring the flavors of traditional Tunisian dishes.
+Afternoon: Engage in outdoor activities like hiking or cycling in the surrounding palmeraie, enjoying the scenic beauty and tranquility of the natural surroundings.
+Evening: Visit Cafe Alhabib for a delightful ambiance and cozy atmosphere, trying local pastries and beverages while immersing in the local culture.
+Night: Experience cultural immersion at La medina de Nefta, a historical site showcasing the rich history and heritage of the region, offering an engaging exploration of its architecture and significance.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a tourist attraction located in Nefta, Tunisia. It is an oasis with palm trees and water, and is a popular spot for visitors to relax and enjoy the natural beauty of the area. The Corbeille de Nefta is located at coordinates (33.87309, 7.87765).
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+Cafe Alhabib is a Cafe located at 33.8741358, 7.8749425 in Nefta, Tunisia. It is open from 6:00 AM to 1:00 AM, and is rated 4.0 out of 5 stars with 8 reviews.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+Voilaille de Nefta, situated in Nefta, Tunisia, is a renowned eatery known for its exceptional culinary offerings. Located at the coordinates (33.8741358, 7.8749425), this establishment has garnered a 5.0 rating based on its 4 reviews. With its opening hours from 07:30 to 22:30, Voilaille de Nefta invites patrons to savor its delectable dishes within a cozy and welcoming atmosphere.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+**La medina de Nefta** is a captivating historical site located at the heart of the Tunisian town nefta, inviting visitors to delve into its rich history and cultural heritage. With its prime location at (33.87309, 7.87765), it boasts an impressive 4.2 rating and has garnered positive reviews for its remarkable architecture and historical significance.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1453,15 +1766,57 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a cozy place to relax, check out Cafe Alhabib located at Avenue de Palestine, Nefta 2240. 
-This top-rated cafe is perfect for coffee lovers and offers a range of drinks and snacks to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-01:00 and closed on nothing.
-To get there, use these GPS coordinates: 33.8741358, 7.8749425. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Alhabib/data=!4m7!3m6!1s0x12578c96d0b807b5:0xc019b37328a0b318!8m2!3d33.8734004!4d7.8862046!16s%2Fg%2F11f1pd93bp!19sChIJtQe40JaMVxIRGLOgKHOzGcA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 93 703 218.</t>
+          <t>Cafe Alhabib is a Cafe located in Nefta, Tunisia (33.8741358, 7.8749425). The cafe has a 4.0 rating based on 8 reviews and is open from 6:00 AM - 1:00 AM. Cafe Alhabib is owned by Cafe Alhabib (proprietaire) and offers various amenities such as wifi, parking, and outdoor seating.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cozy cafe with extensive drink and snack menu in Nefta?</t>
+          <t>Day Plan:
+Morning: Explore the historic **La medina de Nefta** for its architectural and cultural heritage.
+Mid-Morning: Visit the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a local religious site. Next, head to Mosquee Sidi M'Khareg to admire its remarkable designs and serene atmosphere.
+Midday: Savor local cuisine at the highly-rated Complexe Touareg, known for its African flavors.
+Afternoon: Immerse yourself in traditional Tunisian cuisine and flavors by dining at Fast Food Dissi, famous for its pizzas.
+Evening: As the day winds down, relax with a cup of coffee and pastries at the cozy Daily Brew Coffee Shop.
+Night: Indulge in a delicious meal and lively atmosphere at the 24-hour Espace Ferdaous "Zombrita", renowned for its affordable prices and great service.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a tourist attraction located in Nefta, Tunisia. It is an oasis with palm trees and water, and is a popular spot for visitors to relax and enjoy the natural beauty of the area. The Corbeille de Nefta is located at coordinates (33.87309, 7.87765).
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+Cafe Flamingo is a highly-rated cafe located in Nefta, Tunisia. It is well-known for its cozy ambiance and delicious coffee. The cafe is open 24 hours a day, making it a great place to grab a bite to eat or a cup of coffee at any time. Cafe Flamingo is also conveniently located near many of Nefta's popular attractions, making it a great place to stop and rest while exploring the city.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+Restaurant DANMARKI is a highly-rated restaurant located in Nefta, Tunisia, with coordinates (35.5116829, 23.97959). It serves delicious cuisine and has received positive reviews from patrons. The restaurant is open from 10:00 AM to midnight on all days except Fridays when it is closed. For more information, visit their website.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+**La medina de Nefta** is a captivating historical site located at the heart of the Tunisian town nefta, inviting visitors to delve into its rich history and cultural heritage. With its prime location at (33.87309, 7.87765), it boasts an impressive 4.2 rating and has garnered positive reviews for its remarkable architecture and historical significance.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1922,57 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a top-rated restaurant, look no further than Restaurant DANMARKI, located at VVFP+7QR, Restaurant DANMARKI. Rated 5.0, this restaurant is perfect for all your dining needs. Open from 10:00 AM to midnight during the week, Restaurant DANMARKI is closed on Fridays. For more information, visit their website or call 58 960 881.</t>
+          <t>Restaurant DANMARKI is a highly rated dining establishment situated in Nefta, offering an exceptional culinary experience with a 5-star rating. Open daily from 10:00 am to midnight, except on Fridays when it remains closed, Restaurant DANMARKI invites diners to savor its delectable cuisine. Located at coordinates (35.5116829, 23.97959), this restaurant is easily accessible and invites gastronomes to embark on a memorable dining journey.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where can you find Restaurant DANMARKI, a highly-rated restaurant in Nefta open during the week with extended hours?</t>
+          <t>Day Plan:
+Morning: Explore the Corbeille de Nefta, a beautiful oasis with lush palm trees and stunning desert landscapes.
+Mid-Morning: Visit the Espace Ferdaous "Zombrita" for a delicious and affordable meal, enjoying the lively atmosphere.
+Midday: Take a guided tour of La medina de Nefta, a captivating historical site with impressive architecture and rich heritage.
+Afternoon: Immerse yourself in local cuisine with a culinary journey at Restaurant les Sources, known for its warm ambiance and delightful dishes.
+Evening: Enjoy dinner at Complexe Touareg, specializing in African cuisine, and experience the flavors of Tunisia's culinary traditions.
+Night: Relax and unwind with a traditional hammam experience at Dar Hi Life, an eco-chic hotel with a serene atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+Cafe Alhabib is a Cafe located in Nefta, Tunisia (33.8741358, 7.8749425). The cafe has a 4.0 rating based on 8 reviews and is open from 6:00 AM - 1:00 AM. Cafe Alhabib is owned by Cafe Alhabib (proprietaire) and offers various amenities such as wifi, parking, and outdoor seating.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+In the heart of Nefta, the Restaurant les Sources invites you to a culinary journey where you can discover a wide range of dishes in a warm and friendly atmosphere. Nestled at the coordinates (33.8727286, 7.8883298), the restaurant offers a delightful dining experience, with 6 positive reviews and a 4.5 rating.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+**La medina de Nefta** is a captivating historical site located at the heart of the Tunisian town nefta, inviting visitors to delve into its rich history and cultural heritage. With its prime location at (33.87309, 7.87765), it boasts an impressive 4.2 rating and has garnered positive reviews for its remarkable architecture and historical significance.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1670,12 +2070,57 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a delicious meal, check out Restaurant les Sources located at VVFP+5WM Av H Bourguiba. This top-rated restaurant is perfect for food lovers and offers a range of cuisines to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.8727286, 7.8883298. For more details, visit their website or call them at 98 212 966.</t>
+          <t>Restaurant les Sources is nestled in the heart of Nefta, offering an inviting and comfortable dining experience. With its convenient location on Av H Bourguiba, it's easily accessible to locals and visitors alike. The restaurant's menu boasts a delectable array of dishes that cater to various tastes. Its central location makes it an ideal meeting spot for friends, families, and business associates.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant in Nefta with a diverse menu and a convenient location?</t>
+          <t>Day Plan:
+Morning: Explore La medina de Nefta, a historical site with rich cultural heritage.
+Mid-Morning: Visit Mosquee Sidi M'Khareg, a place of worship with remarkable architectural designs.
+Midday: Try local cuisine at Complexe Touareg, a highly-rated African restaurant offering a variety of dishes.
+Afternoon: Relax at Corbeille de Nefta, an oasis with palm trees and water, perfect for enjoying the natural beauty of the area.
+Evening: Enjoy coffee and pastries at The Daily Brew Coffee Shop, a cozy café with a warm and inviting atmosphere.
+Night: Participate in a 24-hour service at Cafe Stade, a café located in Nefta.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a tourist attraction located in Nefta, Tunisia. It is an oasis with palm trees and water, and is a popular spot for visitors to relax and enjoy the natural beauty of the area. The Corbeille de Nefta is located at coordinates (33.87309, 7.87765).
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+Cafe Stade is a Cafe located in nefta (33.871381381994, 7.879904891635). It has a rating of 4.9 out of 11 reviews and is featured for its 24/7 service.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+In the heart of Nefta, the Restaurant les Sources invites you to a culinary journey where you can discover a wide range of dishes in a warm and friendly atmosphere. Nestled at the coordinates (33.8727286, 7.8883298), the restaurant offers a delightful dining experience, with 6 positive reviews and a 4.5 rating.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+**La medina de Nefta** is a captivating historical site located at the heart of the Tunisian town nefta, inviting visitors to delve into its rich history and cultural heritage. With its prime location at (33.87309, 7.87765), it boasts an impressive 4.2 rating and has garnered positive reviews for its remarkable architecture and historical significance.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1781,14 +2226,57 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for something fun to do, check out Cafe Flamingo located at VVG8+7PX Cafe Flamingo, Unnamed Road, Nefta. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 33.8701756, 7.8728363. For more details, visit their website at  or call them at 97 510 010.</t>
+          <t>Cafe Flamingo is a highly-rated cafe located in the heart of Nefta, Tunisia. It offers a delectable selection of beverages and snacks, making it a perfect spot for locals and visitors alike to relax and unwind. The cafe is open 24 hours a day, ensuring accessibility at all times. With a convenient location and warm ambiance, Cafe Flamingo is a must-visit destination for anyone seeking a cozy and enjoyable coffee experience.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where in Nefta can you find a highly-rated Cafe establishment known for its excellent Cafe offerings and operating 24/7?</t>
+          <t>Day Plan:
+Morning: Begin the day by exploring the Corbeille de Nefta, a breathtaking oasis with lush greenery and sparkling irrigation channels. Enjoy the serene landscape as you stroll through the palm groves or embark on a picturesque camel ride.
+Mid-Morning: Head to the centrally located Espace Ferdaous "Zombrita" for a delightful culinary experience. Indulge in traditional Tunisian dishes and savor the flavors of the local cuisine while enjoying the warm and friendly atmosphere.
+Midday: Continue your gastronomic journey by trying the African-inspired cuisine at Complexe Touareg. Immerse yourself in the vibrant flavors and spices of the region as you relish a satisfying meal in the heart of Nefta.
+Afternoon: Escape the midday heat by visiting the historical La medina de Nefta. Step back in time as you wander through the well-preserved streets, admiring the traditional architecture and bustling atmosphere of the ancient marketplace.
+Evening: As the sun begins to set, take a leisurely walk to the enchanting Zaouia de Sidi Bou Ali Al-Sunni Nefti. Experience the sacred ambiance of this religious site and learn about the spiritual significance of this destination.
+Night: Conclude the day by indulging in the sweet aromas and flavors at Fast Food Dissi. Enjoy a cozy and satisfying dinner with a selection of delicious pizzas, complemented by the pizzeria's inviting ambiance.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+**mntzh lkwf@ lSGr~** is a highly rated cafe located in Nefta, at the coordinates (33.8701756, 7.8728363). It offers a warm and inviting ambiance, with a menu that features a variety of drinks and snacks. Customers have praised the cafe's cozy atmosphere, friendly staff, and delicious offerings.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+In Nefta, fast food bali offers a great dining experience. As it's located at the coordinates (33.8701756, 7.8728363), it's an easy place to find. With a rating of 5.0, it's a must-try for anyone looking for a great restaurant.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1890,12 +2378,57 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a taste of local cafe culture, head to Caffe zizou located at VVFV+78J Caffe zizou, Nefta. This highly-rated spot is renowned for its authentic cafe experience and delectable offerings. With a rating of 4.0, Caffe zizou is a must-visit destination for cafe enthusiasts. The dedicated team at Caffe zizou is passionate about providing exceptional service and ensuring a memorable experience for every visitor. For more details, visit their website at https://www.google.com/maps/place/Caff%C3%A8+zizou/data=!4m7!3m6!1s0x12578dc127ed6c13:0x9216b352f43447f8!8m2!3d33.8732058!4d7.8932795!16s%2Fg%2F11jzxlj9_0!19sChIJE2ztJ8GNVxIR-Ec09FKzFpI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 866 285.</t>
+          <t>Caffe zizou is a cafe located in Nefta, Tunisia. It is a cozy spot to relax and enjoy a cup of coffee or tea. The cafe also offers a variety of pastries and snacks. Caffe zizou is located at the coordinates (33.8701756, 7.8728363).</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where in Nefta can you find a highly-rated cafe with an authentic atmosphere for a memorable cafe experience?</t>
+          <t>Day Plan:
+Morning: Exploring the historic medina de Nefta, admiring its preserved ancient architecture and vibrant markets.
+Mid-Morning: Visiting La Mosquee Sidi M'Khareg, immersing in its rich heritage and capturing the serene atmosphere through photography.
+Midday: Trying local cuisine at Complexe Touareg, savoring African culinary delights.
+Afternoon: Relaxing with a traditional hammam experience at Dar Hi Life, rejuvenating amidst the modern and eclectic ambiance.
+Evening: Enjoying a delightful dinner at Restaurant les Sources, indulging in a warm and friendly culinary journey.
+Night: Discovering the vibrant Espace Ferdaous "Zombrita," relishing a delicious midnight meal and soaking in the lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+**Cafe Stade** is a highly-rated cafe located in Nefta, with a 4.9-star rating based on 11 reviews. It offers a cozy and welcoming ambiance, serving delicious coffee and snacks. Cafe Stade is conveniently open 24 hours a day, making it a great spot for late-night cravings or early morning pick-me-ups. The cafe is situated at (33.871381381994, 7.879904891635), making it easily accessible from various parts of the city.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+In the heart of Nefta, the Restaurant les Sources invites you to a culinary journey where you can discover a wide range of dishes in a warm and friendly atmosphere. Nestled at the coordinates (33.8727286, 7.8883298), the restaurant offers a delightful dining experience, with 6 positive reviews and a 4.5 rating.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1997,15 +2530,57 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a great restaurant, check out volaille de nefta located at Avenue Habib Bourguiba. 
-This restaurant is perfect for those who love to eat out and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:30-22:30, but closed on none. 
-To get there, use these GPS coordinates: 33.8741358, 7.8749425. For more details, visit their website at none or call them at none.</t>
+          <t>Voilaille de Nefta, situated in Nefta, Tunisia, is a renowned eatery known for its exceptional culinary offerings. Located at the coordinates (33.8741358, 7.8749425), this establishment has garnered a 5.0 rating based on its 4 reviews. With its opening hours from 07:30 to 22:30, Voilaille de Nefta invites patrons to savor its delectable dishes within a cozy and welcoming atmosphere.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>What is the name and address of the restaurant in Nefta with a perfect rating that offers multiple food categories and has extended operating hours?</t>
+          <t>Day Plan:
+Morning: Explore La medina de Nefta, admiring its architectural beauty and intricate doors.
+Mid-Morning: Visit the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a place of worship and pilgrimage with historical significance.
+Midday: Try local cuisine at Espace ferdaous "Zombrita", a highly-rated cafe and grill restaurant offering affordable and convenient dining options.
+Afternoon: Engage in outdoor activities at the Corbeille de Nefta, exploring its lush palm trees, stunning desert landscape, and picturesque irrigation channels.
+Evening: Take a guided tour of Mosquee Sidi M'Khareg, an iconic place of worship showcasing remarkable architectural designs.
+Night: Relax with a traditional hammam treatment at Dar Hi Life, an eco-chic hotel with a serene ambiance.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+Cafe Alhabib is a Cafe located at 33.8741358, 7.8749425 in Nefta, Tunisia. It is open from 6:00 AM to 1:00 AM, and is rated 4.0 out of 5 stars with 8 reviews.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+**Volaille de Nefta** is a restaurant located in Nefta (33.8741358, 7.8749425), offering a range of dining options to satisfy every taste bud. This establishment is a popular destination for both locals and tourists, boasting a 5.0-star rating based on reviews. With its convenient hours of operation from 7:30 AM to 10:30 PM, Volaille de Nefta provides a welcoming ambiance for those seeking a delightful culinary experience.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2103,13 +2678,57 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a great cafe, check out Cafe Salem at VVHF+M8W. This top-rated destination is perfect for cafe lovers and offers a range of cafe-related options to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8701756, 7.8728363. 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Salem/data=!4m7!3m6!1s0x12578d299d91acf5:0x26a4a68acfea4f6a!8m2!3d33.8792479!4d7.8733353!16s%2Fg%2F11ft7n_cxj!19sChIJ9ayRnSmNVxIRak_qz4qmpCY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [not provided].</t>
+          <t>Cafe Salem is a highly-rated cafe located in VVHF+M8W Nefta, Tunisia. It offers a cozy ambiance and a delectable menu, earning it a 5.0 rating from reviewers. Located at (33.8701756, 7.8728363), Cafe Salem is a great spot to relax, savor a cup of coffee, and soak in the local atmosphere.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where in Nefta can you find a top-rated cafe with a 5.0 rating and its precise GPS coordinates available?</t>
+          <t>Day Plan:
+Morning: Explore La medina de Nefta, a captivating historical site in the heart of Nefta, and immerse yourself in its rich history and cultural heritage.
+Mid-Morning: Visit the Mosquee Sidi M'Khareg, an iconic place of worship showcasing remarkable architectural designs and a serene atmosphere.
+Midday: Try local cuisine at Complexe Touareg, a restaurant offering African cuisine with a 4.1 rating based on 17 reviews.
+Afternoon: Enjoy a relaxing break at Dar Hi Life, an eco-chic hotel offering modern rooms and suites with eclectic decor, a hammam, and complimentary breakfast.
+Evening: Take a guided tour of the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a religious site dedicated to a Muslim saint, to learn about its spiritual significance.
+Night: Engage in cultural immersion at Espace ferdaous "Zombrita", a highly-rated cafe and grill restaurant, and enjoy its cozy ambiance, friendly staff, and delicious offerings.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a tourist attraction located in Nefta, Tunisia. It is an oasis with palm trees and water, and is a popular spot for visitors to relax and enjoy the natural beauty of the area. The Corbeille de Nefta is located at coordinates (33.87309, 7.87765).
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+**mntzh lkwf@ lSGr~** is a highly rated cafe located in Nefta, at the coordinates (33.8701756, 7.8728363). It offers a warm and inviting ambiance, with a menu that features a variety of drinks and snacks. Customers have praised the cafe's cozy atmosphere, friendly staff, and delicious offerings.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+Tahricha Time | tHrysh@ is a highly-rated restaurant in nefta, Tunisia. Situated at the coordinates (33.84889, 7.87926) and with an impressive 4.6 rating based on 11 reviews, this restaurant is open from 8:00 am to 1:00 am every day except Mondays. It specializes in a range of cuisines and offers a warm and welcoming ambiance to its guests.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+**La medina de Nefta** is a captivating historical site located at the heart of the Tunisian town nefta, inviting visitors to delve into its rich history and cultural heritage. With its prime location at (33.87309, 7.87765), it boasts an impressive 4.2 rating and has garnered positive reviews for its remarkable architecture and historical significance.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2215,12 +2834,57 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a great cafe experience, check out Espace Nejma located at VV9H+FQC Espace Nejma, Unnamed Road, Nefta. This top-rated destination offers a cozy ambiance and delicious coffee for all cafe lovers. With a rating of 4.0, it's a must-visit spot. Espace Nejma is open 24/7, so you can enjoy your favorite coffee beverage anytime. For more details, visit their website or call them at 27 746 267.</t>
+          <t>Espace Nejma is a cozy cafe located in Nefta, offering a wide selection of coffee beverages, pastries, and snacks. It also features live music and a relaxing ambiance, making it a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where in Nefta can you find a consistently high-rated cafe that's open 24/7 and boasts a cozy ambiance and delicious coffee?</t>
+          <t>Day Plan:
+Morning: Explore the Corbeille de Nefta, known for its lush palm trees and stunning desert landscape.
+Mid-Morning: Visit Espace ferdaous "Zombrita" for a delightful coffee and breakfast experience.
+Midday: Try local cuisine at Complexe Touareg, specializing in African dishes.
+Afternoon: Engage in outdoor activities at the scenic La medina de Nefta, offering a glimpse into the region's cultural heritage.
+Evening: Experience cultural immersion at the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a place of worship and pilgrimage.
+Night: Relax with a traditional Hammam experience at Hotel Marhala, known for its beautiful views of the surrounding palmeraie.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+**Cafe Stade** is a highly-rated cafe located in Nefta, with a 4.9-star rating based on 11 reviews. It offers a cozy and welcoming ambiance, serving delicious coffee and snacks. Cafe Stade is conveniently open 24 hours a day, making it a great spot for late-night cravings or early morning pick-me-ups. The cafe is situated at (33.871381381994, 7.879904891635), making it easily accessible from various parts of the city.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+Tahricha Time | tHrysh@ is a highly-rated restaurant in nefta, Tunisia. Situated at the coordinates (33.84889, 7.87926) and with an impressive 4.6 rating based on 11 reviews, this restaurant is open from 8:00 am to 1:00 am every day except Mondays. It specializes in a range of cuisines and offers a warm and welcoming ambiance to its guests.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2326,14 +2990,57 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for something fun to do, check out mqh~ 'wld rHym located at Nefta. 
-This top-rated destination is perfect for Cafe lovers and offers Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 33.8701756, 7.8728363. For more details, visit their website at  or call them at 54 079 843.</t>
+          <t>mqh~ 'wld rHym is a cafe located in Nefta, Tunisia. It is known for its cozy atmosphere, friendly staff, and delicious coffee. The cafe is open from 5am to midnight, 7 days a week. It offers a variety of coffee drinks, as well as pastries, sandwiches, and other snacks. mqh~ 'wld rHym is also a popular spot for locals to gather and socialize.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where in Nefta can Cafe lovers find a highly-rated destination with an impressive Cafe menu?</t>
+          <t>Day Plan:
+Morning: Explore the historical La medina de Nefta, a well-preserved ancient city with traditional architecture and a vibrant market.
+Mid-Morning: Visit the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a religious site known for its serene atmosphere and dedication to the Muslim saint.
+Midday: Try local cuisine at Voilaille de Nefta, a renowned eatery with a warm atmosphere and delectable dishes.
+Afternoon: Enjoy scenic views at Mosquee Sidi M'Khareg, an iconic place of worship boasting remarkable architecture and a serene atmosphere.
+Evening: Relax with a traditional Hammam experience at a local spa, offering a rejuvenating and authentic cultural immersion.
+Night: Participate in a guided tour of the ancient Roman city of Henchir el-Hamma, uncovering its rich history and exploring its well-preserved ruins.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+Cafe Ejjouj is a top-rated cafe located at VVCM+3HM, P3, Nefta, with coordinates (33.8701756, 7.8728363). It offers a cozy atmosphere and a menu featuring various cafe beverages and snacks. Its营业时间s are from 4:00 AM to 11:00 PM, and it is closed on nones. With a rating of 4.9 based on 14 reviews, Cafe Ejjouj is a popular spot for locals and tourists alike.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+Voilaille de Nefta, situated in Nefta, Tunisia, is a renowned eatery known for its exceptional culinary offerings. Located at the coordinates (33.8741358, 7.8749425), this establishment has garnered a 5.0 rating based on its 4 reviews. With its opening hours from 07:30 to 22:30, Voilaille de Nefta invites patrons to savor its delectable dishes within a cozy and welcoming atmosphere.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2435,12 +3142,57 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for a great place to get some caffeine, check out mntzh lkwf@ lSGr~. This top-rated cafe is perfect for coffee lovers and offers a range of drinks to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 33.8701756, 7.8728363. For more details, visit their website .</t>
+          <t>**mntzh lkwf@ lSGr~** is a highly rated cafe located in Nefta, at the coordinates (33.8701756, 7.8728363). It offers a warm and inviting ambiance, with a menu that features a variety of drinks and snacks. Customers have praised the cafe's cozy atmosphere, friendly staff, and delicious offerings.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where in Nefta can you find a highly-rated cafe offering a variety of coffee drinks and boasting a 4.5 rating?</t>
+          <t>Day Plan:
+Morning: Explore La medina de Nefta, a captivating historical site located at the heart of Nefta.
+Mid-Morning: Trying local cuisine at Complexe Touareg, a restaurant offering African cuisine with a 4.1 rating.
+Midday: Visit Mosquee Sidi M'Khareg, an esteemed place of worship showcasing remarkable architectural designs and a serene atmosphere.
+Afternoon: Engage in outdoor activities like hiking or biking at Parc National de Nefta, an oasis with palm trees and water, offering a picturesque ambiance.
+Evening: Relax with a pampering session at Hotel Marhala, a 4-star hotel with a swimming pool and spa facilities.
+Night: Participate in an event or activity at Espace Ferdaous "Zombrita," a 24-hour cafe and grill offering a wide variety of items and live entertainment.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a tourist attraction located in Nefta, Tunisia. It is an oasis with palm trees and water, and is a popular spot for visitors to relax and enjoy the natural beauty of the area. The Corbeille de Nefta is located at coordinates (33.87309, 7.87765).
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+Cafe Alhabib is a Cafe located at 33.8741358, 7.8749425 in Nefta, Tunisia. It is open from 6:00 AM to 1:00 AM, and is rated 4.0 out of 5 stars with 8 reviews.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+In Nefta, fast food bali offers a great dining experience. As it's located at the coordinates (33.8701756, 7.8728363), it's an easy place to find. With a rating of 5.0, it's a must-try for anyone looking for a great restaurant.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+**La medina de Nefta** is a captivating historical site located at the heart of the Tunisian town nefta, inviting visitors to delve into its rich history and cultural heritage. With its prime location at (33.87309, 7.87765), it boasts an impressive 4.2 rating and has garnered positive reviews for its remarkable architecture and historical significance.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2534,12 +3286,57 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a cozy spot to enjoy a cup of coffee, check out a7la blsassa located at VVGJ+C4W a7la blsassa. This top-rated cafe has garnered a 5.0 rating, making it a must-visit destination for locals and travelers alike. With its warm and inviting atmosphere, a7la blsassa is perfect for unwinding and catching up with friends over a delicious cup of coffee. To get there, use these GPS coordinates: 33.8701756, 7.8728363.</t>
+          <t>a7la blsassa is a Cafe situated in Nefta, Tunisia. Located at the coordinates (33.8701756, 7.8728363), it has a rating of 5.0 based on 1 review.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>What is the name of the highly-rated cafe with a warm atmosphere in Nefta, known for its exceptional coffee?</t>
+          <t>Day Plan:
+Morning: Explore the historical La medina de Nefta, marveling at its ancient architecture and immersing yourself in the local culture.
+Mid-Morning: Visit the serene Mosquee Sidi M'Khareg, appreciating its exquisite design and spiritual significance.
+Midday: Savor local delicacies at the highly-rated Espace Ferdaous "Zombrita," tantalizing your taste buds with traditional Tunisian flavors.
+Afternoon: Embark on a guided tour of the Corbeille de Nefta, discovering its breathtaking oasis, lush palm groves, and serene atmosphere.
+Evening: Indulge in a delectable dinner at Restaurant DANMARKI, renowned for its exceptional cuisine and inviting ambiance.
+Night: Experience the lively atmosphere of Fast Food Dissi, savoring delicious pizzas amidst a cozy and welcoming setting while enjoying local music.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+mqh~ 'wld rHym is a cafe located in Nefta, Tunisia. It is known for its cozy atmosphere, friendly staff, and delicious coffee. The cafe is open from 5am to midnight, 7 days a week. It offers a variety of coffee drinks, as well as pastries, sandwiches, and other snacks. mqh~ 'wld rHym is also a popular spot for locals to gather and socialize.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+Restaurant DANMARKI is a highly rated dining establishment situated in Nefta, offering an exceptional culinary experience with a 5-star rating. Open daily from 10:00 am to midnight, except on Fridays when it remains closed, Restaurant DANMARKI invites diners to savor its delectable cuisine. Located at coordinates (35.5116829, 23.97959), this restaurant is easily accessible and invites gastronomes to embark on a memorable dining journey.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2641,12 +3438,57 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a delicious meal, check out fast food bali located at VVCJ+W98 fast food bali, P3. This top-rated Restaurant is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8701756, 7.8728363. For more details, visit their website or call them at 90 128 072.</t>
+          <t>In Nefta, fast food bali offers a great dining experience. As it's located at the coordinates (33.8701756, 7.8728363), it's an easy place to find. With a rating of 5.0, it's a must-try for anyone looking for a great restaurant.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where is the top-rated restaurant with a rating of 5.0 in Nefta, perfect for restaurant lovers and known for its delicious food?</t>
+          <t>Day Plan:
+Morning: Explore the La medina de Nefta, an ancient site known for its architectural beauty.
+Mid-Morning: Visit the Mosquee Sidi M'Khareg, a historically significant place of worship in Nefta.
+Midday: Try local cuisine at Espace ferdaous "Zombrita," a highly-rated cafe and grill restaurant for an authentic dining experience.
+Afternoon: Relax with a traditional Hammam experience at Dar Hi Life, an eco-chic hotel offering a serene and rejuvenating atmosphere.
+Evening: Participate in a cultural immersion experience by visiting the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a religious site that represents the local culture and traditions.
+Night: Enjoy scenic views at the Corbeille de Nefta, an alluring oasis perfect for witnessing the sunset and concluding the day with tranquil moments.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a tourist attraction located in Nefta, Tunisia. It is an oasis with palm trees and water, and is a popular spot for visitors to relax and enjoy the natural beauty of the area. The Corbeille de Nefta is located at coordinates (33.87309, 7.87765).
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+Cafe Alhabib is a Cafe located at 33.8741358, 7.8749425 in Nefta, Tunisia. It is open from 6:00 AM to 1:00 AM, and is rated 4.0 out of 5 stars with 8 reviews.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+In the heart of Nefta, the Restaurant les Sources invites you to a culinary journey where you can discover a wide range of dishes in a warm and friendly atmosphere. Nestled at the coordinates (33.8727286, 7.8883298), the restaurant offers a delightful dining experience, with 6 positive reviews and a 4.5 rating.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2756,14 +3598,57 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for a place to stay, check out Dar Hi Life located at VVGM+X2 Dar Hi Life, Quartier Ezaouia, Nefta. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.8701756, 7.8728363. For more details, visit their website at http://www.dar-hi.net/ or call them at 76 432 779.</t>
+          <t>Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated hotel destination specifically tailored for Hotel enthusiasts in Nefta?</t>
+          <t>Day Plan:
+Morning: Explore the captivating La medina de Nefta, immersing yourself in its rich history and cultural significance.
+Mid-Morning: Visit the historic Mosquee Sidi M'Khareg, admiring its remarkable architectural designs and serene atmosphere.
+Midday: Savor the authentic flavors of Tunisian cuisine at the highly-rated restaurant Volaille de Nefta, known for its diverse dining options.
+Afternoon: Indulge in a rejuvenating experience at Dar Hi Life, an eco-chic hotel offering luxurious facilities like a hammam and complimentary breakfast.
+Evening: Stroll through the vibrant and bustling Espace ferdaous "Zombrita", enjoying a delightful dinner while experiencing the lively local atmosphere.
+Night: Immerse yourself in the vibrant nightlife of Nefta at Cafe Ejjouj, enjoying a cozy ambiance with various cafe beverages and snacks.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+Cafe Ejjouj is a top-rated cafe located at VVCM+3HM, P3, Nefta, with coordinates (33.8701756, 7.8728363). It offers a cozy atmosphere and a menu featuring various cafe beverages and snacks. Its营业时间s are from 4:00 AM to 11:00 PM, and it is closed on nones. With a rating of 4.9 based on 14 reviews, Cafe Ejjouj is a popular spot for locals and tourists alike.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+**Volaille de Nefta** is a restaurant located in Nefta (33.8741358, 7.8749425), offering a range of dining options to satisfy every taste bud. This establishment is a popular destination for both locals and tourists, boasting a 5.0-star rating based on reviews. With its convenient hours of operation from 7:30 AM to 10:30 PM, Volaille de Nefta provides a welcoming ambiance for those seeking a delightful culinary experience.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+**La medina de Nefta** is a captivating historical site located at the heart of the Tunisian town nefta, inviting visitors to delve into its rich history and cultural heritage. With its prime location at (33.87309, 7.87765), it boasts an impressive 4.2 rating and has garnered positive reviews for its remarkable architecture and historical significance.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2861,12 +3746,57 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for a top-rated hotel, check out Hotel Marhala located at VV9F+F26 Hotel Marhala, Palmeraie de, Zone Touristique, Nefta 2240. This 4.0-rated hotel is perfect for those seeking a comfortable stay. For more details, visit their website at https://www.google.com/maps/place/Hotel+Marhala/data=!4m10!3m9!1s0x12578d813937b929:0x7ca2db69802e038c!5m2!4m1!1i2!8m2!3d33.8698539!4d7.8723953!16s%2Fg%2F11jzgynyjh!19sChIJKbk3OYGNVxIRjAMugGnbonw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hotel with a convenient location in Nefta's scenic Palmeraie?</t>
+          <t>Day Plan:
+Morning: Explore the Corbeille de Nefta, a picturesque oasis with lush palm trees and stunning desert landscapes.
+Mid-Morning: Visit the La medina de Nefta, a historic site with beautiful architectural details.
+Midday: Try local cuisine at Espace ferdaous "Zombrita," a highly-rated café and grill restaurant.
+Afternoon: Take a guided tour of the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a place of worship and pilgrimage.
+Evening: Enjoy scenic views at the Mosquee Sidi M'Khareg, an esteemed place of worship with remarkable architectural designs.
+Night: Relax at Hotel Marhala, a 4-star hotel with amenities such as a swimming pool, restaurant, and bar.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+Cafe Flamingo is a highly-rated cafe located in Nefta, Tunisia. It is well-known for its cozy ambiance and delicious coffee. The cafe is open 24 hours a day, making it a great place to grab a bite to eat or a cup of coffee at any time. Cafe Flamingo is also conveniently located near many of Nefta's popular attractions, making it a great place to stop and rest while exploring the city.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+Restaurant DANMARKI is a highly rated dining establishment situated in Nefta, offering an exceptional culinary experience with a 5-star rating. Open daily from 10:00 am to midnight, except on Fridays when it remains closed, Restaurant DANMARKI invites diners to savor its delectable cuisine. Located at coordinates (35.5116829, 23.97959), this restaurant is easily accessible and invites gastronomes to embark on a memorable dining journey.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2968,12 +3898,57 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a top-rated tourist attraction, visit Corbeille de Nefta located at VVHF+6Q8 Corbeille de Nefta, P3, Nefta. With a rating of 4.1, it's a must-visit spot for a unique experience. It's open during these hours: 07:00-18:00, but closed on undisclosed days. To get there, use these GPS coordinates: 33.87309, 7.87765.</t>
+          <t>The Corbeille de Nefta is a tourist attraction located in Nefta, Tunisia. It is an oasis with palm trees and water, and is a popular spot for visitors to relax and enjoy the natural beauty of the area. The Corbeille de Nefta is located at coordinates (33.87309, 7.87765).</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated tourist attraction in Nefta, boasting a 4.1 rating?</t>
+          <t>Day Plan:
+Morning: Explore the captivating historical site of **La medina de Nefta**, immersing yourself in its rich heritage and cultural significance.
+Mid-Morning: Indulge in the delectable local cuisine at **Espace Ferdaous "Zombrita"**, savoring the flavors of traditional Tunisian dishes.
+Midday: Visit the breathtaking Corbeille de Nefta, an oasis of tranquility with lush palm trees and shimmering water, offering a serene escape from the urban hustle.
+Afternoon: Engage in outdoor activities at the picturesque Daily Brew Coffee Shop, enjoying a refreshing beverage while taking in the vibrant atmosphere.
+Evening: Experience cultural immersion at the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a revered religious site that showcases the spiritual traditions of the region.
+Night: Ascend to the scenic Mosquee Sidi M'Khareg for breathtaking views of the city, capturing the essence of Nefta's architectural beauty.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a tourist attraction located in Nefta, Tunisia. It is an oasis with palm trees and water, and is a popular spot for visitors to relax and enjoy the natural beauty of the area. The Corbeille de Nefta is located at coordinates (33.87309, 7.87765).
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+**mntzh lkwf@ lSGr~** is a highly rated cafe located in Nefta, at the coordinates (33.8701756, 7.8728363). It offers a warm and inviting ambiance, with a menu that features a variety of drinks and snacks. Customers have praised the cafe's cozy atmosphere, friendly staff, and delicious offerings.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+Restaurant DANMARKI is a highly rated dining establishment situated in Nefta, offering an exceptional culinary experience with a 5-star rating. Open daily from 10:00 am to midnight, except on Fridays when it remains closed, Restaurant DANMARKI invites diners to savor its delectable cuisine. Located at coordinates (35.5116829, 23.97959), this restaurant is easily accessible and invites gastronomes to embark on a memorable dining journey.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+**La medina de Nefta** is a captivating historical site located at the heart of the Tunisian town nefta, inviting visitors to delve into its rich history and cultural heritage. With its prime location at (33.87309, 7.87765), it boasts an impressive 4.2 rating and has garnered positive reviews for its remarkable architecture and historical significance.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3075,12 +4050,57 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a historical site to explore, visit La medina de Nefta located at Unnamed Road. This top-rated destination is perfect for history buffs and offers a range of historical sites to choose from. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 33.87309, 7.87765. For more details, visit their website at https://www.google.com/maps/place/La+medina+de+Nefta/data=!4m7!3m6!1s0x12578c9045073e05:0x169b5cc320cf227a!8m2!3d33.8694242!4d7.8849425!16s%2Fg%2F11f3jk3n0s!19sChIJBT4HRZCMVxIReiLPIMNcmxY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>What is the historical site with a 4.2 rating and located at 33.87309, 7.87765 in Nefta that offers a range of historical sites to explore?</t>
+          <t>Day Plan:
+Morning: Explore the captivating historical site of **La medina de Nefta**, immersing yourself in its rich cultural heritage and impressive architecture.
+Mid-Morning: Delight in mouthwatering local cuisine at the highly-rated **Espace Ferdaous "Zombrita"**, savoring the flavors of Tunisia's culinary delights.
+Midday: Visit the historic Mosquee Sidi M'Khareg, a place of worship and pilgrimage, to learn about the spiritual heritage of Nefta.
+Afternoon: Engage in outdoor activities at the scenic **Corbeille de Nefta**, a breathtaking oasis perfect for leisurely walks, relaxation, and taking in the beauty of nature.
+Evening: Experience cultural immersion at the **Zaouia de Sidi Bou Ali Al-Sunni Nefti**, a religious site that offers a glimpse into the local traditions and beliefs.
+Night: Wind down with a relaxing stay at the eco-chic **Dar Hi Life**, indulging in the tranquility of a hammam and enjoying a well-deserved rest before the next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+Cafe Ejjouj is a top-rated cafe located at VVCM+3HM, P3, Nefta, with coordinates (33.8701756, 7.8728363). It offers a cozy atmosphere and a menu featuring various cafe beverages and snacks. Its营业时间s are from 4:00 AM to 11:00 PM, and it is closed on nones. With a rating of 4.9 based on 14 reviews, Cafe Ejjouj is a popular spot for locals and tourists alike.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+Restaurant les Sources is nestled in the heart of Nefta, offering an inviting and comfortable dining experience. With its convenient location on Av H Bourguiba, it's easily accessible to locals and visitors alike. The restaurant's menu boasts a delectable array of dishes that cater to various tastes. Its central location makes it an ideal meeting spot for friends, families, and business associates.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+**La medina de Nefta** is a captivating historical site located at the heart of the Tunisian town nefta, inviting visitors to delve into its rich history and cultural heritage. With its prime location at (33.87309, 7.87765), it boasts an impressive 4.2 rating and has garnered positive reviews for its remarkable architecture and historical significance.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3182,12 +4202,57 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a memorable experience, visit Corbeille de Nefta, located at VVHF+6Q8 Corbeille de Nefta, P3. This top-rated attraction is a must-visit for those who appreciate unique tourist destinations. With a rating of 4.1, it offers a one-of-a-kind experience. Corbeille de Nefta is open daily from 07:00-18:00. Use the GPS coordinates 33.87309, 7.87765 to navigate to the site. Be sure to explore their featured image at https://lh5.googleusercontent.com/p/AF1QipMPxBrBBZvV7gzOgOZGvZDNwc8cr220TLC9uJPF=w408-h306-k-no for a glimpse of what awaits you.</t>
+          <t>The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated tourist destination in Nefta that offers a unique experience with a 4.1 rating?</t>
+          <t>Day Plan:
+Morning: Exploring La medina de Nefta, admiring its architectural beauty and capturing the essence of Nefta's historic roots.
+Mid-Morning: Embarking on a guided tour of Mosquee Sidi M'Khareg, delving into the rich heritage and spiritual significance of this esteemed place of worship.
+Midday: Savoring the authentic flavors of Tunisian cuisine at Complexe Touareg, indulging in a tantalizing African culinary experience.
+Afternoon: Rejuvenating at Hotel Marhala, basking in the tranquility of the swimming pool while soaking up the picturesque views of the palmeraie.
+Evening: Joining local festivities at Espace Ferdaous "Zombrita," immersing in the vibrant atmosphere and savoring a delectable dinner.
+Night: Experiencing the craftsmanship and artistry of Yamen HD Nefta, capturing cherished moments and preserving the memories of a remarkable day in Nefta.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+a7la blsassa is a Cafe situated in Nefta, Tunisia. Located at the coordinates (33.8701756, 7.8728363), it has a rating of 5.0 based on 1 review.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+Restaurant les Sources is nestled in the heart of Nefta, offering an inviting and comfortable dining experience. With its convenient location on Av H Bourguiba, it's easily accessible to locals and visitors alike. The restaurant's menu boasts a delectable array of dishes that cater to various tastes. Its central location makes it an ideal meeting spot for friends, families, and business associates.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3289,14 +4354,63 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for something fun to do, check out La medina de Nefta located at La medina de Nefta, Unnamed Road. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open 24h/24, but closed on None. To get there, use these GPS coordinates: 33.87309, 7.87765. For more details, visit their website at https://www.google.com/maps/place/La+medina+de+Nefta/data=!4m7!3m6!1s0x12578c9045073e05:0x169b5cc320cf227a!8m2!3d33.8694242!4d7.8849425!16s%2Fg%2F11f3jk3n0s!19sChIJBT4HRZCMVxIReiLPIMNcmxY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
+          <t>The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where in Nefta can you find a top-rated destination for historical enthusiasts, offering a variety of historical attractions?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic La medina de Nefta, admiring its architectural beauty and doors.
+**Mid-Morning:**
+- Enjoy a delicious meal at the highly-rated Espace Ferdaous "Zombrita," savoring the local flavors.
+**Midday:**
+- Visit the Corbeille de Nefta oasis, relaxing amidst palm trees and water.
+**Afternoon:**
+- Engage in cultural immersion at the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a place of worship and pilgrimage.
+**Evening:**
+- Take a guided tour of Mosquee Sidi M'Khareg, marveling at its remarkable architecture and serene atmosphere.
+**Night:**
+- Relax and unwind with a traditional meal at the African restaurant Complexe Touareg, sampling the delights of local cuisine.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a tourist attraction located in Nefta, Tunisia. It is an oasis with palm trees and water, and is a popular spot for visitors to relax and enjoy the natural beauty of the area. The Corbeille de Nefta is located at coordinates (33.87309, 7.87765).
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+Cafe Salem is a highly-rated cafe located in VVHF+M8W Nefta, Tunisia. It offers a cozy ambiance and a delectable menu, earning it a 5.0 rating from reviewers. Located at (33.8701756, 7.8728363), Cafe Salem is a great spot to relax, savor a cup of coffee, and soak in the local atmosphere.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+Restaurant DANMARKI is a highly-rated restaurant located in Nefta, Tunisia, with coordinates (35.5116829, 23.97959). It serves delicious cuisine and has received positive reviews from patrons. The restaurant is open from 10:00 AM to midnight on all days except Fridays when it is closed. For more information, visit their website.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3398,12 +4512,57 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for something fun to do, check out Zaouia de Sidi Bou Ali Al-Sunni Nefti located at VV8H+333 Zaouia de Sidi Bou Ali Al-Sunni Nefti, Nefta. This top-rated destination is perfect for Lieu de culte lovers and offers a range of Lieu de culte to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.8650541, 7.8776322. For more details, visit their website or call them at 23 067 767.</t>
+          <t>The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Lieu de culte destination with a rating of 4.5 that offers a variety of experiences for Lieu de culte enthusiasts in Nefta?</t>
+          <t>Day Plan:
+Morning: Explore the historic La medina de Nefta, a well-preserved ancient city with traditional houses, mosques, and markets.
+Mid-Morning: Visit the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a holy site for Muslim pilgrims, to appreciate its unique architectural designs and serene atmosphere. 
+Midday: Satisfy your taste buds with a delightful lunch at Voilaille de Nefta, known for its exceptional culinary offerings.
+Afternoon: Take a plunge into the refreshing waters of the Corbeille de Nefta oasis, a breathtaking paradise with lush palm groves, sparkling waters, and serene gardens. 
+Evening: Indulge in a traditional African dining experience at Complexe Touareg, savoring authentic dishes while enjoying the vibrant ambiance.
+Night: Unwind with a relaxing evening stroll through the picturesque palmeraie surrounding Hotel Marhala, offering stunning views under the starlit sky.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+Caffe zizou is a cafe located in Nefta, Tunisia. It is a cozy spot to relax and enjoy a cup of coffee or tea. The cafe also offers a variety of pastries and snacks. Caffe zizou is located at the coordinates (33.8701756, 7.8728363).
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+Voilaille de Nefta, situated in Nefta, Tunisia, is a renowned eatery known for its exceptional culinary offerings. Located at the coordinates (33.8741358, 7.8749425), this establishment has garnered a 5.0 rating based on its 4 reviews. With its opening hours from 07:30 to 22:30, Voilaille de Nefta invites patrons to savor its delectable dishes within a cozy and welcoming atmosphere.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3501,12 +4660,57 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you find yourself in nefta and seeking an enriching experience, make your way to Mosquee Sidi M'Khareg. Nestled at VV9J+RWJ Mosquee Sidi M'Khareg, P3, Nefta, this top-rated destination caters to Mosquee enthusiasts. Visitors can delve into a range of categories, including Mosquee and Lieu historique. With a stellar rating of 4.6, this attraction is a must-visit. To get there, simply follow the GPS coordinates: 33.8696026, 7.8821324. For more information, visit the website at https://www.google.com/maps/place/Mosqu%C3%A9e+Sidi+M%27Khareg/data=!4m7!3m6!1s0x12578c9a91101ba3:0x553cad5ac64fbbce!8m2!3d33.8695838!4d7.8822634!16s%2Fg%2F124ypgl08!19sChIJoxsQkZqMVxIRzrtPxlqtPFU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where can you explore a highly-rated destination in Nefta that showcases historical and religious significance within the Mosquee and Lieu historique categories?</t>
+          <t>Day Plan:
+Morning: Explore the ancient La medina de Nefta, known for its beautiful architecture, particularly its doors.
+Mid-Morning: Visit the Mosquee Sidi M'Khareg, an iconic place of worship with a rich heritage and stunning architectural designs.
+Midday: Try local cuisine at Espace ferdaous "Zombrita", a highly-rated cafe and grill restaurant offering affordable prices and a 24-hour service.
+Afternoon: Relax and enjoy the natural beauty of the Corbeille de Nefta, an oasis with palm trees and water, popular for relaxation and scenic views.
+Evening: Indulge in delicious pizzas at Fast Food Dissi, a highly-rated pizzeria with a cozy ambiance and a tempting menu.
+Night: Experience cultural immersion at the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a religious site and place of pilgrimage dedicated to a Muslim saint.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a tourist attraction located in Nefta, Tunisia. It is an oasis with palm trees and water, and is a popular spot for visitors to relax and enjoy the natural beauty of the area. The Corbeille de Nefta is located at coordinates (33.87309, 7.87765).
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+a7la blsassa is a Cafe situated in Nefta, Tunisia. Located at the coordinates (33.8701756, 7.8728363), it has a rating of 5.0 based on 1 review.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+**Volaille de Nefta** is a restaurant located in Nefta (33.8741358, 7.8749425), offering a range of dining options to satisfy every taste bud. This establishment is a popular destination for both locals and tourists, boasting a 5.0-star rating based on reviews. With its convenient hours of operation from 7:30 AM to 10:30 PM, Volaille de Nefta provides a welcoming ambiance for those seeking a delightful culinary experience.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3596,14 +4800,57 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a top-rated photography studio, check out Yamen HD Nefta located at Yamen HD Nefta, nfT@. 
-This must-visit spot is a popular choice for photography enthusiasts, offering a range of services to choose from. 
-With a rating of 5.0, it's a highly recommended destination. To get there, use the GPS coordinates available on their website or call them for more details.</t>
+          <t>Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>In Nefta, which top-rated photography studio is a popular choice for its exceptional services and high ratings?</t>
+          <t>Day Plan:
+* Morning: Explore the historical La medina de Nefta, a well-preserved ancient architecture.
+* Mid-Morning: Visit the Mosquee Sidi M'Khareg to appreciate its remarkable architectural designs and serene atmosphere.
+* Midday: Try local cuisine at the highly-rated African restaurant, Complexe Touareg.
+* Afternoon: Engage in outdoor activities at the scenic Corbeille de Nefta oasis, a popular tourist destination known for its lush palm trees and stunning desert landscape.
+* Evening: Participate in the cultural immersion at the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a religious site and place of pilgrimage.
+* Night: Relax with a cozy ambiance and warm atmosphere at The Daily Brew Coffee Shop, a café that offers a variety of coffee, tea, and pastries.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+Cafe Alhabib is a Cafe located at 33.8741358, 7.8749425 in Nefta, Tunisia. It is open from 6:00 AM to 1:00 AM, and is rated 4.0 out of 5 stars with 8 reviews.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+In the heart of Nefta, the Restaurant les Sources invites you to a culinary journey where you can discover a wide range of dishes in a warm and friendly atmosphere. Nestled at the coordinates (33.8727286, 7.8883298), the restaurant offers a delightful dining experience, with 6 positive reviews and a 4.5 rating.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3705,12 +4952,57 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a historically significant site, La medina de Nefta is an excellent option located at La medina de Nefta, Unnamed Road, Naftah. This top-rated destination is perfect for history buffs and offers a range of historical landmarks to explore. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, making it convenient to visit at your leisure. To get there, use these GPS coordinates: 33.87309, 7.87765. For more details, visit their website at https://www.google.com/maps/place/La+medina+de+Nefta/data=!4m7!3m6!1s0x12578c9045073e05:0x169b5cc320cf227a!8m2!3d33.8694242!4d7.8849425!16s%2Fg%2F11f3jk3n0s!19sChIJBT4HRZCMVxIReiLPIMNcmxY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**La medina de Nefta** is a captivating historical site located at the heart of the Tunisian town nefta, inviting visitors to delve into its rich history and cultural heritage. With its prime location at (33.87309, 7.87765), it boasts an impressive 4.2 rating and has garnered positive reviews for its remarkable architecture and historical significance.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated historical site in Nefta, known for its historical significance, that is open around the clock?</t>
+          <t>Day Plan:
+Morning: Explore the Corbeille de Nefta and marvel at its picturesque beauty
+Mid-Morning: Try local cuisine at Espace ferdaous "Zombrita," savoring its affordable and delightful offerings
+Midday: Visit the Zaouia de Sidi Bou Ali Al-Sunni Nefti, immersing yourself in its religious significance
+Afternoon: Enjoy the sun-drenched Mosquee Sidi M'Khareg, appreciating its historic architecture
+Evening: Take a guided tour of the La medina de Nefta, uncovering its well-preserved ancient treasures
+Night: Relax at Hotel Marhala, unwinding in its serene ambiance and admiring the surrounding landscape</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+Cafe Alhabib is a Cafe located in Nefta, Tunisia (33.8741358, 7.8749425). The cafe has a 4.0 rating based on 8 reviews and is open from 6:00 AM - 1:00 AM. Cafe Alhabib is owned by Cafe Alhabib (proprietaire) and offers various amenities such as wifi, parking, and outdoor seating.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+Tahricha Time | tHrysh@ is a highly-rated restaurant in nefta, Tunisia. Situated at the coordinates (33.84889, 7.87926) and with an impressive 4.6 rating based on 11 reviews, this restaurant is open from 8:00 am to 1:00 am every day except Mondays. It specializes in a range of cuisines and offers a warm and welcoming ambiance to its guests.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3820,14 +5112,63 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a great dining experience, check out Espace ferdaous "Zombrita" located at VV9J+7XJ Nefta. 
-This top-rated destination is perfect for Café et restaurant de grillades lovers and offers a range of options to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.8701756, 7.8728363. For more details, visit their website at https://www.facebook.com/EL.FERDAWS.ZOMBRITA/ or call them at 52 563 871.</t>
+          <t>The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where in Nefta can you find a highly rated dining establishment that specializes in Café et restaurant de grillades and is open around the clock?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic La medina de Nefta.
+**Mid-Morning:**
+- Try local cuisine at Espace Ferdaous "Zombrita".
+**Midday:**
+- Visit the ancient religious site, Zaouia de Sidi Bou Ali Al-Sunni Nefti.
+**Afternoon:**
+- Enjoy scenic views at Mosquee Sidi M'Khareg.
+**Evening:**
+- Relax with a spa treatment at Hotel Marhala.
+**Night:**
+- Engage in cultural immersion at Yamen HD Nefta photography studio.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+Cafe Alhabib is a Cafe located at 33.8741358, 7.8749425 in Nefta, Tunisia. It is open from 6:00 AM to 1:00 AM, and is rated 4.0 out of 5 stars with 8 reviews.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+Restaurant DANMARKI is a highly-rated restaurant located in Nefta, Tunisia, with coordinates (35.5116829, 23.97959). It serves delicious cuisine and has received positive reviews from patrons. The restaurant is open from 10:00 AM to midnight on all days except Fridays when it is closed. For more information, visit their website.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3933,14 +5274,57 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for something fun to do, check out Complexe Touareg. 
-This top-rated destination is perfect for Restaurant africain lovers and offers a range of Restaurant africain to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 33.8721027, 7.8837539. For more details, visit their website or call them at 23 950 518.</t>
+          <t>Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where can you venture into an exceptional Restaurant africain dining experience in Nefta, with a high rating and convenient operating hours?</t>
+          <t>Day Plan:
+Morning: Explore the historic **La medina de Nefta**, uncovering its well-preserved architectural heritage.
+Mid-Morning: Immerse in local cuisine at **Espace ferdaous "Zombrita"**, relishing affordable and delectable dishes.
+Midday: Visit the revered **Mosquee Sidi M'Khareg** for a glimpse of its stunning architecture and serene ambiance.
+Afternoon: Escape to the tranquil oasis of **The Corbeille de Nefta**, surrounded by lush palm trees and refreshing water.
+Evening: Indulge in authentic African flavors at **Complexe Touareg**, experiencing a vibrant culinary journey.
+Night: Rest and rejuvenate at the eco-chic **Dar Hi Life**, surrounded by eclectic decor and the warmth of traditional hospitality.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a tourist attraction located in Nefta, Tunisia. It is an oasis with palm trees and water, and is a popular spot for visitors to relax and enjoy the natural beauty of the area. The Corbeille de Nefta is located at coordinates (33.87309, 7.87765).
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+Cafe Alhabib is a Cafe located in Nefta, Tunisia (33.8741358, 7.8749425). The cafe has a 4.0 rating based on 8 reviews and is open from 6:00 AM - 1:00 AM. Cafe Alhabib is owned by Cafe Alhabib (proprietaire) and offers various amenities such as wifi, parking, and outdoor seating.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+Voilaille de Nefta, situated in Nefta, Tunisia, is a renowned eatery known for its exceptional culinary offerings. Located at the coordinates (33.8741358, 7.8749425), this establishment has garnered a 5.0 rating based on its 4 reviews. With its opening hours from 07:30 to 22:30, Voilaille de Nefta invites patrons to savor its delectable dishes within a cozy and welcoming atmosphere.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4050,12 +5434,57 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a top-rated spot for tea lovers, check out The Daily Brew Coffee Shop, located at Rue des Martyrs. With a rating of 5.0, this popular destination offers a range of tea options to choose from. It's open daily from 08:00-23:00. To get there, use these GPS coordinates: 43.655929, -79.384026. To find out more, visit their website at https://www.facebook.com/DailyBrewCoffeeshop/ or call them at 21 077 707.</t>
+          <t>The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where can you find a 5.0-rated tea spot with extended operating hours in Nefta?</t>
+          <t>Day Plan:
+Morning: Explore **La medina de Nefta** and immerse yourself in its historical charm.
+Mid-Morning: Visit Zaouia de Sidi Bou Ali Al-Sunni Nefti, a revered religious site, and delve into its spiritual significance.
+Midday: Treat your taste buds to delectable local cuisine at Espace Ferdaous "Zombrita," known for its delicious and affordable meals.
+Afternoon: Stroll through Corbeille de Nefta, an enchanting oasis amidst the desert, and marvel at its breathtaking beauty.
+Evening: Experience the vibrant atmosphere of Espace Nejma, a cozy café serving a variety of coffee beverages and pastries, and enjoy the live music.
+Night: Indulge in a delightful dinner at Fast Food Dissi, a highly-rated pizzeria offering a cozy ambiance and a satisfying menu.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+Espace Nejma is a cozy cafe located in Nefta, offering a wide selection of coffee beverages, pastries, and snacks. It also features live music and a relaxing ambiance, making it a popular spot for locals and tourists alike.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+In Nefta, fast food bali offers a great dining experience. As it's located at the coordinates (33.8701756, 7.8728363), it's an easy place to find. With a rating of 5.0, it's a must-try for anyone looking for a great restaurant.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+**La medina de Nefta** is a captivating historical site located at the heart of the Tunisian town nefta, inviting visitors to delve into its rich history and cultural heritage. With its prime location at (33.87309, 7.87765), it boasts an impressive 4.2 rating and has garnered positive reviews for its remarkable architecture and historical significance.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4157,15 +5586,57 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for something fun to do, check out Cafe Stade located at VVCH+623 Cafe Stade, RN3.
-This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from.
-With a rating of 4.9, it's a must-visit spot. It's open 24 hours a day.
-To get there, use these GPS coordinates: 33.871381381994, 7.879904891635.</t>
+          <t>**Cafe Stade** is a highly-rated cafe located in Nefta, with a 4.9-star rating based on 11 reviews. It offers a cozy and welcoming ambiance, serving delicious coffee and snacks. Cafe Stade is conveniently open 24 hours a day, making it a great spot for late-night cravings or early morning pick-me-ups. The cafe is situated at (33.871381381994, 7.879904891635), making it easily accessible from various parts of the city.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where in Nefta can you find a highly rated cafe open 24 hours, perfect for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the Corbeille de Nefta
+Mid-Morning: Trying local cuisine at Complexe Touareg
+Midday: Visiting the Zaouia de Sidi Bou Ali Al-Sunni Nefti
+Afternoon: Enjoying scenic views at La medina de Nefta
+Evening: Relaxing with a hammam at Dar Hi Life
+Night: Experiencing cultural immersion at Mosquee Sidi M'Khareg</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+Espace Nejma is a cozy cafe located in Nefta, offering a wide selection of coffee beverages, pastries, and snacks. It also features live music and a relaxing ambiance, making it a popular spot for locals and tourists alike.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+Restaurant DANMARKI is a highly-rated restaurant located in Nefta, Tunisia, with coordinates (35.5116829, 23.97959). It serves delicious cuisine and has received positive reviews from patrons. The restaurant is open from 10:00 AM to midnight on all days except Fridays when it is closed. For more information, visit their website.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4271,12 +5742,57 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a top-rated pizzeria, check out Fast Food Dissi located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. With a rating of 4.9 based on 9 reviews, it's a must-visit spot for pizza lovers. It's open from 12:00-00:00 on weekdays and closed on Sundays. For more details, you can call them at 53 053 232.</t>
+          <t>Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>If you're in Nefta and craving a highly-rated pizza experience, what pizzeria at VVGM+JP should you visit that boasts a 4.9-star rating from 9 satisfied customers?</t>
+          <t>Day Plan:
+Morning: Exploring the historic La medina de Nefta
+Mid-Morning: Trying local cuisine at Complexe Touareg
+Midday: Relaxing with a traditional hammam at Dar Hi Life
+Afternoon: Exploring the religious site Zaouia de Sidi Bou Ali Al-Sunni Nefti
+Evening: Indulging in scenic views at Mosquee Sidi M'Khareg
+Night: Enjoying delicious pizzas at Fast Food Dissi</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a tourist attraction located in Nefta, Tunisia. It is an oasis with palm trees and water, and is a popular spot for visitors to relax and enjoy the natural beauty of the area. The Corbeille de Nefta is located at coordinates (33.87309, 7.87765).
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+a7la blsassa is a Cafe situated in Nefta, Tunisia. Located at the coordinates (33.8701756, 7.8728363), it has a rating of 5.0 based on 1 review.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+Restaurant DANMARKI is a highly rated dining establishment situated in Nefta, offering an exceptional culinary experience with a 5-star rating. Open daily from 10:00 am to midnight, except on Fridays when it remains closed, Restaurant DANMARKI invites diners to savor its delectable cuisine. Located at coordinates (35.5116829, 23.97959), this restaurant is easily accessible and invites gastronomes to embark on a memorable dining journey.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4382,12 +5898,57 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a great cafe, check out Cafe Alhabib located at Avenue de Palestine, Nefta 2240. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-01:00. To get there, use these GPS coordinates: 33.8741358, 7.8749425. For more details, visit their website or call them at 93 703 218.</t>
+          <t>Cafe Alhabib is a Cafe located at 33.8741358, 7.8749425 in Nefta, Tunisia. It is open from 6:00 AM to 1:00 AM, and is rated 4.0 out of 5 stars with 8 reviews.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where can you find Cafe Alhabib, a highly-rated cafe with a wide selection of options and a 4.0 rating in Nefta?</t>
+          <t>Day Plan:
+Morning: Exploring La medina de Nefta
+Mid-Morning: Trying local cuisine at Complexe Touareg
+Midday: Visiting Zaouia de Sidi Bou Ali Al-Sunni Nefti
+Afternoon: Relaxing with a hammam at Dar Hi Life
+Evening: Enjoying scenic views at Mosquee Sidi M'Khareg
+Night: Experiencing cultural immersion at Espace ferdaous "Zombrita"</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+Caffe zizou is a cafe located in Nefta, Tunisia. It is a cozy spot to relax and enjoy a cup of coffee or tea. The cafe also offers a variety of pastries and snacks. Caffe zizou is located at the coordinates (33.8701756, 7.8728363).
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+Restaurant DANMARKI is a highly-rated restaurant located in Nefta, Tunisia, with coordinates (35.5116829, 23.97959). It serves delicious cuisine and has received positive reviews from patrons. The restaurant is open from 10:00 AM to midnight on all days except Fridays when it is closed. For more information, visit their website.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4493,12 +6054,57 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for a great restaurant, check out Restaurant DANMARKI located at VVFP+7QR, Nefta. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-00:00, but closed on Fridays. To get there, use these GPS coordinates: 35.5116829, 23.97959. For more details, visit their website at https://www.google.com/maps/place/Restaurant+DANMARKI/data=!4m7!3m6!1s0x12578dc64fafd265:0xb894232f1fb9ed20!8m2!3d33.8732333!4d7.8867446!16s%2Fg%2F11v0n5kk5s!19sChIJZdKvT8aNVxIRIO25Hy8jlLg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 960 881.</t>
+          <t>Restaurant DANMARKI is a highly-rated restaurant located in Nefta, Tunisia, with coordinates (35.5116829, 23.97959). It serves delicious cuisine and has received positive reviews from patrons. The restaurant is open from 10:00 AM to midnight on all days except Fridays when it is closed. For more information, visit their website.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where in Nefta can you find a top-rated restaurant with a 5.0 rating, offering a range of dining options and convenient hours?</t>
+          <t>Day Plan:
+Morning: Explore the Corbeille de Nefta
+Mid-Morning: Try local cuisine at Espace Ferdaous "Zombrita"
+Midday: Visit the Zaouia de Sidi Bou Ali Al-Sunni Nefti
+Afternoon: Enjoy the scenic views at **La medina de Nefta**
+Evening: Relax with a massage at Dar Hi Life
+Night: Participate in a traditional music and dance performance at Espace Nejma</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+Espace Nejma, located at VV9H+FQC Espace Nejma, Unnamed Road, Nefta (33.8701756, 7.8728363), is a cafe that offers a diverse menu and a warm atmosphere.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+Restaurant DANMARKI is a highly rated dining establishment situated in Nefta, offering an exceptional culinary experience with a 5-star rating. Open daily from 10:00 am to midnight, except on Fridays when it remains closed, Restaurant DANMARKI invites diners to savor its delectable cuisine. Located at coordinates (35.5116829, 23.97959), this restaurant is easily accessible and invites gastronomes to embark on a memorable dining journey.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+**La medina de Nefta** is a captivating historical site located at the heart of the Tunisian town nefta, inviting visitors to delve into its rich history and cultural heritage. With its prime location at (33.87309, 7.87765), it boasts an impressive 4.2 rating and has garnered positive reviews for its remarkable architecture and historical significance.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4596,12 +6202,63 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for a great dining experience, check out Restaurant les Sources located at AV H Bourguiba, Nefta. This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant options to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.8727286, 7.8883298. For more details, call them at 98 212 966.</t>
+          <t>In the heart of Nefta, the Restaurant les Sources invites you to a culinary journey where you can discover a wide range of dishes in a warm and friendly atmosphere. Nestled at the coordinates (33.8727286, 7.8883298), the restaurant offers a delightful dining experience, with 6 positive reviews and a 4.5 rating.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Restaurant les Sources located, offering a variety of dining options for Restaurant enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic La medina de Nefta, known for its architectural beauty.
+**Mid-Morning:**
+- Visit the Yamen HD Nefta photography studio for a professional photoshoot to capture memories of your trip.
+**Midday:**
+- Try local cuisine at Voilaille de Nefta, known for its exceptional culinary offerings.
+**Afternoon:**
+- Relax with a traditional hammam experience at Dar Hi Life Hotel.
+**Evening:**
+- Enjoy a delicious meal and a great time at Espace Ferdaous "Zombrita," open 24 hours a day.
+**Night:**
+- Experience the cultural charm of the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a place of worship and pilgrimage.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a tourist attraction located in Nefta, Tunisia. It is an oasis with palm trees and water, and is a popular spot for visitors to relax and enjoy the natural beauty of the area. The Corbeille de Nefta is located at coordinates (33.87309, 7.87765).
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+a7la blsassa is a Cafe situated in Nefta, Tunisia. Located at the coordinates (33.8701756, 7.8728363), it has a rating of 5.0 based on 1 review.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+Voilaille de Nefta, situated in Nefta, Tunisia, is a renowned eatery known for its exceptional culinary offerings. Located at the coordinates (33.8741358, 7.8749425), this establishment has garnered a 5.0 rating based on its 4 reviews. With its opening hours from 07:30 to 22:30, Voilaille de Nefta invites patrons to savor its delectable dishes within a cozy and welcoming atmosphere.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4707,14 +6364,63 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a great cafe, check out Cafe Flamingo located at VVG8+7PX Cafe Flamingo, Unnamed Road. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.8701756, 7.8728363. For more details, call them at 97 510 010.</t>
+          <t>Cafe Flamingo is a highly-rated cafe located in Nefta, Tunisia. It is well-known for its cozy ambiance and delicious coffee. The cafe is open 24 hours a day, making it a great place to grab a bite to eat or a cup of coffee at any time. Cafe Flamingo is also conveniently located near many of Nefta's popular attractions, making it a great place to stop and rest while exploring the city.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated cafe in Nefta known for its diverse offerings, extended hours, and convenient location?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the historic medina de Nefta.
+**Mid-Morning:**
+- Visit the Zaouia de Sidi Bou Ali Al-Sunni Nefti for a glimpse into local religious life.
+**Midday:**
+- Indulge in local cuisine at Volaille de Nefta, known for its delectable dining options.
+**Afternoon:**
+- Immerse yourself in nature by enjoying a peaceful oasis retreat at Corbeille de Nefta.
+**Evening:**
+- Capture the essence of Nefta's cultural heritage at Mosquee Sidi M'Khareg.
+**Night:**
+- Relish the vibrant atmosphere of Nefta by savoring a delightful dinner at Espace ferdaous "Zombrita."</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+Cafe Flamingo is a highly-rated cafe located in Nefta, Tunisia. It is well-known for its cozy ambiance and delicious coffee. The cafe is open 24 hours a day, making it a great place to grab a bite to eat or a cup of coffee at any time. Cafe Flamingo is also conveniently located near many of Nefta's popular attractions, making it a great place to stop and rest while exploring the city.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+**Volaille de Nefta** is a restaurant located in Nefta (33.8741358, 7.8749425), offering a range of dining options to satisfy every taste bud. This establishment is a popular destination for both locals and tourists, boasting a 5.0-star rating based on reviews. With its convenient hours of operation from 7:30 AM to 10:30 PM, Volaille de Nefta provides a welcoming ambiance for those seeking a delightful culinary experience.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4816,12 +6522,63 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for something fun to do, check out volaille de nefta located at Avenue Habib Bourguiba, Nefta 2240. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:30-22:30, but closed on . To get there, use these GPS coordinates: 33.8741358, 7.8749425.</t>
+          <t>**Volaille de Nefta** is a restaurant located in Nefta (33.8741358, 7.8749425), offering a range of dining options to satisfy every taste bud. This establishment is a popular destination for both locals and tourists, boasting a 5.0-star rating based on reviews. With its convenient hours of operation from 7:30 AM to 10:30 PM, Volaille de Nefta provides a welcoming ambiance for those seeking a delightful culinary experience.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where in Nefta can you find a highly-rated (5.0) Restaurant destination, "volaille de nefta," with a wide selection of Restaurant options?</t>
+          <t>Day Plan:
+**Morning:**
+- Visit the Corbeille de Nefta, a beautiful oasis known for its lush palm trees and stunning desert landscape.
+**Mid-Morning:**
+- Explore La medina de Nefta, a captivating historical site with impressive architecture and rich cultural heritage.
+**Midday:**
+- Try local cuisine at Complexe Touareg, a restaurant offering African cuisine with a 4.1 rating.
+**Afternoon:**
+- Visit the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a religious site dedicated to a Muslim saint.
+**Evening:**
+- Enjoy the scenic views at Mosquee Sidi M'Khareg, an esteemed place of worship with remarkable architectural designs.
+**Night:**
+- Relax with a traditional tea at The Daily Brew Coffee Shop, a tea room with a 5.0 rating.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.
+**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+Espace Nejma, located at VV9H+FQC Espace Nejma, Unnamed Road, Nefta (33.8701756, 7.8728363), is a cafe that offers a diverse menu and a warm atmosphere.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+In the heart of Nefta, the Restaurant les Sources invites you to a culinary journey where you can discover a wide range of dishes in a warm and friendly atmosphere. Nestled at the coordinates (33.8727286, 7.8883298), the restaurant offers a delightful dining experience, with 6 positive reviews and a 4.5 rating.
+Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.
+**La medina de Nefta** is a captivating historical site located at the heart of the Tunisian town nefta, inviting visitors to delve into its rich history and cultural heritage. With its prime location at (33.87309, 7.87765), it boasts an impressive 4.2 rating and has garnered positive reviews for its remarkable architecture and historical significance.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4927,15 +6684,57 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in Nefta and seeking an enjoyable time, visit Espace Nejma, situated at VV9H+FQC Espace Nejma, Unnamed Road, Nefta. 
-This highly-rated cafe offers a delectable menu and a warm atmosphere, making it perfect for cafe enthusiasts. 
-With a rating of 4.0, it's a must-visit destination. Espace Nejma is conveniently open 24 hours a day, so you can enjoy your favorite beverages and snacks anytime. 
-For further information, visit their website at https://www.google.com/maps/place/Espace+Nejma/data=!4m7!3m6!1s0x12578dbcf200b5ad:0x46f44f8fc95bb3a4!8m2!3d33.8686833!4d7.8794!16s%2Fg%2F11gk8pcbpm!19sChIJrbUA8ryNVxIRpLNbyY9P9EY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 746 267.</t>
+          <t>Espace Nejma, located at VV9H+FQC Espace Nejma, Unnamed Road, Nefta (33.8701756, 7.8728363), is a cafe that offers a diverse menu and a warm atmosphere.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>If you're in Nefta and seeking a highly-rated cafe with a warm atmosphere and delectable menu, what is the name of the establishment located at VV9H+FQC Espace Nejma, Unnamed Road, and open 24/7?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the historic La medina de Nefta.
+**Mid-Morning:** Visit the Zaouia de Sidi Bou Ali Al-Sunni Nefti, a renowned religious site.
+**Midday:** Try local cuisine at Cafe Stade, offering a cozy ambiance and delicious coffee.
+**Afternoon:** Relax with a visit to Dar Hi Life, an eco-chic hotel with a hammam and charming rooms.
+**Evening:** Enjoy scenic views at Mosquee Sidi M'Khareg, an iconic place of worship.
+**Night:** Capture special moments with a professional photoshoot at Yamen HD Nefta photography studio.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.
+The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.
+**Cafe Stade** is a highly-rated cafe located in Nefta, with a 4.9-star rating based on 11 reviews. It offers a cozy and welcoming ambiance, serving delicious coffee and snacks. Cafe Stade is conveniently open 24 hours a day, making it a great spot for late-night cravings or early morning pick-me-ups. The cafe is situated at (33.871381381994, 7.879904891635), making it easily accessible from various parts of the city.
+Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.
+Restaurant DANMARKI is a highly-rated restaurant located in Nefta, Tunisia, with coordinates (35.5116829, 23.97959). It serves delicious cuisine and has received positive reviews from patrons. The restaurant is open from 10:00 AM to midnight on all days except Fridays when it is closed. For more information, visit their website.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5041,12 +6840,57 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in nefta and seeking a superb culinary experience, Tahricha Time | tHrysh@ is the place to be. This top-rated Restaurant, located at Rte De Nefta, Tozeur, offers a tantalizing menu of dishes sure to delight even the most discerning palate. With a rating of 4.6, based on 11 reviews, it's a must-visit for foodies exploring the area. Tahricha Time | tHrysh@ is open from 08:00-01:00 during the week, but closed on Mondays. For convenient navigation, utilize these GPS coordinates: (33.84889, 7.87926). For further information, visit their website or make a reservation by calling 28 458 305.</t>
+          <t>Tahricha Time | tHrysh@ is a highly-rated restaurant in nefta, Tunisia. Situated at the coordinates (33.84889, 7.87926) and with an impressive 4.6 rating based on 11 reviews, this restaurant is open from 8:00 am to 1:00 am every day except Mondays. It specializes in a range of cuisines and offers a warm and welcoming ambiance to its guests.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated culinary destination with a tantalizing menu and a convenient location in Nefta?</t>
+          <t>Day Plan:
+Morning: Exploring La medina de Nefta
+Mid-Morning: Trying local cuisine at Espace Ferdaous "Zombrita"
+Midday: Visiting Mosquee Sidi M'Khareg
+Afternoon: Enjoying scenic views at Corbeille de Nefta
+Evening: Relaxing with a hammam at Dar Hi Life
+Night: Participating in an event at Zaouia de Sidi Bou Ali Al-Sunni Nefti</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.
+The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.
+Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.
+The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).
+**Cafe Stade** is a highly-rated cafe located in Nefta, with a 4.9-star rating based on 11 reviews. It offers a cozy and welcoming ambiance, serving delicious coffee and snacks. Cafe Stade is conveniently open 24 hours a day, making it a great spot for late-night cravings or early morning pick-me-ups. The cafe is situated at (33.871381381994, 7.879904891635), making it easily accessible from various parts of the city.
+Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.
+Restaurant DANMARKI is a highly-rated restaurant located in Nefta, Tunisia, with coordinates (35.5116829, 23.97959). It serves delicious cuisine and has received positive reviews from patrons. The restaurant is open from 10:00 AM to midnight on all days except Fridays when it is closed. For more information, visit their website.
+Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.
+The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.
+The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).
+Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.
+Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
